--- a/src/corpus/record.xlsx
+++ b/src/corpus/record.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{302E2718-D30A-4873-B707-4E2CDE925690}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{689469D4-BE6A-4C59-B659-66504D8E992C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22255" windowHeight="12646" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unigram+最优权重" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
   <si>
     <t>BNB</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -68,6 +68,10 @@
   </si>
   <si>
     <t>n=10000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=all words</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -146,13 +150,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -437,61 +441,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -511,63 +515,118 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041348E9-74D9-4FDB-82D7-9200BF382A65}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7646CB-5234-491B-A24E-2ACC14FDA312}">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -584,65 +643,65 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7646CB-5234-491B-A24E-2ACC14FDA312}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87327D2B-5EB8-4C63-A7B0-3A54DE1D1772}">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -659,81 +718,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87327D2B-5EB8-4C63-A7B0-3A54DE1D1772}">
-  <dimension ref="A1:K7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99EB490-E231-4784-92D9-9DC65568F0B2}">
   <dimension ref="A1"/>
@@ -742,7 +726,7 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -755,7 +739,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/corpus/record.xlsx
+++ b/src/corpus/record.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{689469D4-BE6A-4C59-B659-66504D8E992C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2CBE539C-3CD9-4AF1-8211-92EEA85C378E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22255" windowHeight="12646" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unigram+最优权重" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
   <si>
     <t>BNB</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -72,6 +72,38 @@
   </si>
   <si>
     <t>n=all words</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_dim=128</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_dim=256</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=2500</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=5000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=7500</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinSVC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_dim=400</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVC(rfc)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -445,9 +477,9 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
@@ -469,32 +501,32 @@
       </c>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -517,46 +549,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041348E9-74D9-4FDB-82D7-9200BF382A65}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0.74604999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0.76070000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0.62649999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.73445000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.75985000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -565,78 +615,146 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7646CB-5234-491B-A24E-2ACC14FDA312}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G1" s="3"/>
-      <c r="H1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0.50009999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.50014999999999998</v>
+      </c>
+      <c r="F2">
+        <v>0.50155000000000005</v>
+      </c>
+      <c r="H2">
+        <v>0.50719999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0.50009999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.49995000000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.49990000000000001</v>
+      </c>
+      <c r="H3">
+        <v>0.50080000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0.50009999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.50014999999999998</v>
+      </c>
+      <c r="F4">
+        <v>0.50160000000000005</v>
+      </c>
+      <c r="H4">
+        <v>0.50072000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.50009999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.50014999999999998</v>
+      </c>
+      <c r="F6">
+        <v>0.50160000000000005</v>
+      </c>
+      <c r="H6">
+        <v>0.50072000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <v>0.50014999999999998</v>
+      </c>
+      <c r="H7">
+        <v>0.505</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -645,73 +763,104 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87327D2B-5EB8-4C63-A7B0-3A54DE1D1772}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G1" s="3"/>
-      <c r="H1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0.74182400000000004</v>
+      </c>
+      <c r="D2">
+        <v>0.74162399999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0.74242419999999998</v>
+      </c>
+      <c r="D3">
+        <v>0.74082400000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0.75647560000000003</v>
+      </c>
+      <c r="D4">
+        <v>0.75432540000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.72822799999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.72917299999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0.75922599999999996</v>
+      </c>
+      <c r="D7">
+        <v>0.73377340000000002</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -720,14 +869,82 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99EB490-E231-4784-92D9-9DC65568F0B2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.6331</v>
+      </c>
+      <c r="D2">
+        <v>0.64180000000000004</v>
+      </c>
+      <c r="F2">
+        <v>0.64759999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>0.69689999999999996</v>
+      </c>
+      <c r="D3">
+        <v>0.70745000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>0.64059999999999995</v>
+      </c>
+      <c r="C4">
+        <v>0.65375000000000005</v>
+      </c>
+      <c r="D4">
+        <v>0.65244999999999997</v>
+      </c>
+      <c r="E4">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.64549999999999996</v>
+      </c>
+      <c r="G4">
+        <v>0.63500000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -739,7 +956,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/corpus/record.xlsx
+++ b/src/corpus/record.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2CBE539C-3CD9-4AF1-8211-92EEA85C378E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{674E2A3F-DA88-4065-92EE-26548E9ACFDA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unigram+最优权重" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="18">
   <si>
     <t>BNB</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -51,22 +51,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>n=4000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>n=2000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>n=6000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>n=8000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>n=10000</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -104,6 +88,14 @@
   </si>
   <si>
     <t>SVC(rfc)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>accyracy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ave</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -111,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,8 +134,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,6 +160,11 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -170,7 +175,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -178,8 +183,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
@@ -189,8 +197,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="差" xfId="3" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="适中" xfId="2" builtinId="28"/>
@@ -471,73 +487,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>0.76165000000000005</v>
+      </c>
+      <c r="D2">
+        <v>0.77185000000000004</v>
+      </c>
+      <c r="F2">
+        <v>0.77134999999999998</v>
+      </c>
+      <c r="H2">
+        <v>0.77429999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>0.76319999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.77229999999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.77124999999999999</v>
+      </c>
+      <c r="H3">
+        <v>0.77444999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>0.77334999999999998</v>
+      </c>
+      <c r="D4">
+        <v>0.78110000000000002</v>
+      </c>
+      <c r="F4">
+        <v>0.77949999999999997</v>
+      </c>
+      <c r="H4">
+        <v>0.77875000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>0.70404999999999995</v>
+      </c>
+      <c r="D5">
+        <v>0.67969999999999997</v>
+      </c>
+      <c r="F5">
+        <v>0.66379999999999995</v>
+      </c>
+      <c r="H5">
+        <v>0.65039999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>0.77495000000000003</v>
+      </c>
+      <c r="D6">
+        <v>0.78305000000000002</v>
+      </c>
+      <c r="F6">
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="H6">
+        <v>0.78395000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0.7762</v>
+      </c>
+      <c r="D7">
+        <v>0.77785000000000004</v>
+      </c>
+      <c r="F7">
+        <v>0.77415</v>
+      </c>
+      <c r="H7">
+        <v>0.77629999999999999</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -549,17 +633,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041348E9-74D9-4FDB-82D7-9200BF382A65}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="3"/>
+      <c r="A1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -624,28 +709,31 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -763,187 +851,461 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87327D2B-5EB8-4C63-A7B0-3A54DE1D1772}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="3" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C1" s="5"/>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="6"/>
+      <c r="M1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0.74182400000000004</v>
       </c>
-      <c r="D2">
+      <c r="C2">
+        <v>0.74307400000000001</v>
+      </c>
+      <c r="D2" s="3">
+        <f>(B2+C2)/2</f>
+        <v>0.74244900000000003</v>
+      </c>
+      <c r="E2">
         <v>0.74162399999999995</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>0.74787499999999996</v>
+      </c>
+      <c r="G2" s="4">
+        <f>(E2+F2)/2</f>
+        <v>0.74474949999999995</v>
+      </c>
+      <c r="H2">
+        <v>0.74342430000000004</v>
+      </c>
+      <c r="J2" s="3">
+        <f>H2</f>
+        <v>0.74342430000000004</v>
+      </c>
+      <c r="K2">
+        <v>0.74677466999999997</v>
+      </c>
+      <c r="M2" s="4">
+        <f>K2</f>
+        <v>0.74677466999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>0.74242419999999998</v>
       </c>
-      <c r="D3">
+      <c r="C3">
+        <v>0.74277400000000005</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D7" si="0">(B3+C3)/2</f>
+        <v>0.74259910000000007</v>
+      </c>
+      <c r="E3">
         <v>0.74082400000000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>0.74757470000000004</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G7" si="1">(E3+F3)/2</f>
+        <v>0.74419935000000004</v>
+      </c>
+      <c r="H3">
+        <v>0.74412440000000002</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J7" si="2">H3</f>
+        <v>0.74412440000000002</v>
+      </c>
+      <c r="K3">
+        <v>0.74532449999999995</v>
+      </c>
+      <c r="M3" s="4">
+        <f t="shared" ref="M3:M7" si="3">K3</f>
+        <v>0.74532449999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>0.75647560000000003</v>
       </c>
-      <c r="D4">
+      <c r="C4">
+        <v>0.75517599999999996</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.75582579999999999</v>
+      </c>
+      <c r="E4">
         <v>0.75432540000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>0.75472547000000001</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="1"/>
+        <v>0.75452543500000002</v>
+      </c>
+      <c r="H4">
+        <v>0.75782578</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="2"/>
+        <v>0.75782578</v>
+      </c>
+      <c r="K4">
+        <v>0.75922590000000001</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" si="3"/>
+        <v>0.75922590000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
-      <c r="D5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="K5">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <v>0.72822799999999999</v>
       </c>
-      <c r="D6">
+      <c r="C6">
+        <v>0.72747300000000004</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.72785049999999996</v>
+      </c>
+      <c r="E6">
         <v>0.72917299999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>0.72727269999999999</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="1"/>
+        <v>0.72822284999999998</v>
+      </c>
+      <c r="H6">
+        <v>0.72632262999999997</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="2"/>
+        <v>0.72632262999999997</v>
+      </c>
+      <c r="K6">
+        <v>0.72882287999999995</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" si="3"/>
+        <v>0.72882287999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <v>0.75922599999999996</v>
       </c>
-      <c r="D7">
+      <c r="C7">
+        <v>0.74902500000000005</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.7541255</v>
+      </c>
+      <c r="E7">
         <v>0.73377340000000002</v>
+      </c>
+      <c r="F7">
+        <v>0.75422540000000005</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="1"/>
+        <v>0.74399940000000009</v>
+      </c>
+      <c r="H7">
+        <v>0.71697169000000005</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.71697169000000005</v>
+      </c>
+      <c r="K7">
+        <v>0.73667366000000001</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" si="3"/>
+        <v>0.73667366000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99EB490-E231-4784-92D9-9DC65568F0B2}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0.6331</v>
       </c>
-      <c r="D2">
+      <c r="C2">
+        <v>0.64070000000000005</v>
+      </c>
+      <c r="D2" s="3">
+        <f>(B2+C2)/2</f>
+        <v>0.63690000000000002</v>
+      </c>
+      <c r="E2">
         <v>0.64180000000000004</v>
       </c>
       <c r="F2">
+        <v>0.63905000000000001</v>
+      </c>
+      <c r="G2" s="4">
+        <f>(E2+F2)/2</f>
+        <v>0.64042500000000002</v>
+      </c>
+      <c r="H2">
         <v>0.64759999999999995</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <v>0.6391</v>
+      </c>
+      <c r="J2" s="3">
+        <f>(H2+I2)/2</f>
+        <v>0.64334999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B3">
+        <v>0.68269999999999997</v>
+      </c>
+      <c r="C3">
+        <v>0.67149999999999999</v>
+      </c>
+      <c r="D3" s="3">
+        <f>(B3+C3)/2</f>
+        <v>0.67710000000000004</v>
+      </c>
+      <c r="E3">
+        <v>0.65690000000000004</v>
+      </c>
+      <c r="F3">
+        <v>0.66874999999999996</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G5" si="0">(E3+F3)/2</f>
+        <v>0.662825</v>
+      </c>
+      <c r="H3">
+        <v>0.65910000000000002</v>
+      </c>
+      <c r="I3">
+        <v>0.65785000000000005</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J5" si="1">(H3+I3)/2</f>
+        <v>0.65847500000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
         <v>0.69689999999999996</v>
       </c>
-      <c r="D3">
+      <c r="D4" s="1">
+        <v>0.69689999999999996</v>
+      </c>
+      <c r="E4">
         <v>0.70745000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
+      <c r="G4" s="4">
+        <v>0.70745000000000002</v>
+      </c>
+      <c r="H4">
+        <v>0.70625000000000004</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.70625000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
         <v>0.64059999999999995</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>0.65375000000000005</v>
       </c>
-      <c r="D4">
+      <c r="D5" s="3">
+        <f>(B5+C5)/2</f>
+        <v>0.64717500000000006</v>
+      </c>
+      <c r="E5">
         <v>0.65244999999999997</v>
       </c>
-      <c r="E4">
+      <c r="F5">
         <v>0.61699999999999999</v>
       </c>
-      <c r="F4">
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.63472499999999998</v>
+      </c>
+      <c r="H5">
         <v>0.64549999999999996</v>
       </c>
-      <c r="G4">
+      <c r="I5">
         <v>0.63500000000000001</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.64024999999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/corpus/record.xlsx
+++ b/src/corpus/record.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{674E2A3F-DA88-4065-92EE-26548E9ACFDA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B6BF6F33-5F5B-4645-B500-B69499A84788}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unigram+最优权重" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="19">
   <si>
     <t>BNB</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -96,6 +96,10 @@
   </si>
   <si>
     <t>ave</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -853,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87327D2B-5EB8-4C63-A7B0-3A54DE1D1772}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -881,7 +885,9 @@
         <v>12</v>
       </c>
       <c r="I1" s="5"/>
-      <c r="J1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="K1" s="6" t="s">
         <v>6</v>
       </c>
@@ -1139,15 +1145,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99EB490-E231-4784-92D9-9DC65568F0B2}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
@@ -1173,7 +1179,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1208,7 +1214,7 @@
         <v>0.64334999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1243,7 +1249,7 @@
         <v>0.65847500000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1266,7 +1272,7 @@
         <v>0.70625000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1299,6 +1305,11 @@
       <c r="J5" s="3">
         <f t="shared" si="1"/>
         <v>0.64024999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N16" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/src/corpus/record.xlsx
+++ b/src/corpus/record.xlsx
@@ -3,17 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B6BF6F33-5F5B-4645-B500-B69499A84788}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7DA2F7A2-FC58-42C6-9CD2-08A486011A4E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="unigram+最优权重" sheetId="1" r:id="rId1"/>
-    <sheet name="unigram（未做最优权重处理）" sheetId="2" r:id="rId2"/>
-    <sheet name="bigrams+最优权重" sheetId="3" r:id="rId3"/>
-    <sheet name="unigram+bigram" sheetId="4" r:id="rId4"/>
-    <sheet name="svm+w2v" sheetId="5" r:id="rId5"/>
-    <sheet name="LSTM" sheetId="6" r:id="rId6"/>
+    <sheet name="uni" sheetId="1" r:id="rId1"/>
+    <sheet name="bi" sheetId="2" r:id="rId2"/>
+    <sheet name="uni+bi" sheetId="3" r:id="rId3"/>
+    <sheet name="uni_info" sheetId="4" r:id="rId4"/>
+    <sheet name="uni_info+bi" sheetId="5" r:id="rId5"/>
+    <sheet name="uni_bi_tri" sheetId="6" r:id="rId6"/>
+    <sheet name="uni_info+bi+tri" sheetId="7" r:id="rId7"/>
+    <sheet name="w2v" sheetId="8" r:id="rId8"/>
+    <sheet name="lstm" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="21">
   <si>
     <t>BNB</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -59,14 +62,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>n_dim=128</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>n_dim=256</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>n=2500</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -79,27 +74,43 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>LinSVC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>n_dim=400</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SVC(rfc)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>accyracy</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ave</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>s</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=1000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=2000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=3000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=4000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=6000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=7000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=8000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=9000</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -191,7 +202,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
@@ -208,6 +219,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="差" xfId="3" builtinId="27"/>
@@ -491,141 +508,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="8"/>
+      <c r="L1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="9"/>
+      <c r="N1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="8"/>
+      <c r="P1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="8"/>
+      <c r="T1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="U1" s="9"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.76165000000000005</v>
-      </c>
-      <c r="D2">
-        <v>0.77185000000000004</v>
-      </c>
-      <c r="F2">
-        <v>0.77134999999999998</v>
-      </c>
-      <c r="H2">
-        <v>0.77429999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.76319999999999999</v>
-      </c>
-      <c r="D3">
-        <v>0.77229999999999999</v>
-      </c>
-      <c r="F3">
-        <v>0.77124999999999999</v>
-      </c>
-      <c r="H3">
-        <v>0.77444999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.77334999999999998</v>
-      </c>
-      <c r="D4">
-        <v>0.78110000000000002</v>
-      </c>
-      <c r="F4">
-        <v>0.77949999999999997</v>
-      </c>
-      <c r="H4">
-        <v>0.77875000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.70404999999999995</v>
-      </c>
-      <c r="D5">
-        <v>0.67969999999999997</v>
-      </c>
-      <c r="F5">
-        <v>0.66379999999999995</v>
-      </c>
-      <c r="H5">
-        <v>0.65039999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0.77495000000000003</v>
-      </c>
-      <c r="D6">
-        <v>0.78305000000000002</v>
-      </c>
-      <c r="F6">
-        <v>0.78120000000000001</v>
-      </c>
-      <c r="H6">
-        <v>0.78395000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0.7762</v>
-      </c>
-      <c r="D7">
-        <v>0.77785000000000004</v>
-      </c>
-      <c r="F7">
-        <v>0.77415</v>
-      </c>
-      <c r="H7">
-        <v>0.77629999999999999</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="10">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -643,12 +641,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -720,24 +718,24 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -855,287 +853,123 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87327D2B-5EB8-4C63-A7B0-3A54DE1D1772}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="3" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="8"/>
+      <c r="L1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="9"/>
+      <c r="N1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="8"/>
+      <c r="P1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="8"/>
+      <c r="T1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="U1" s="9"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.74182400000000004</v>
-      </c>
-      <c r="C2">
-        <v>0.74307400000000001</v>
-      </c>
-      <c r="D2" s="3">
-        <f>(B2+C2)/2</f>
-        <v>0.74244900000000003</v>
-      </c>
-      <c r="E2">
-        <v>0.74162399999999995</v>
-      </c>
-      <c r="F2">
-        <v>0.74787499999999996</v>
-      </c>
-      <c r="G2" s="4">
-        <f>(E2+F2)/2</f>
-        <v>0.74474949999999995</v>
-      </c>
-      <c r="H2">
-        <v>0.74342430000000004</v>
-      </c>
-      <c r="J2" s="3">
-        <f>H2</f>
-        <v>0.74342430000000004</v>
-      </c>
-      <c r="K2">
-        <v>0.74677466999999997</v>
-      </c>
-      <c r="M2" s="4">
-        <f>K2</f>
-        <v>0.74677466999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="J2" s="3"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.74242419999999998</v>
-      </c>
-      <c r="C3">
-        <v>0.74277400000000005</v>
-      </c>
-      <c r="D3" s="3">
-        <f t="shared" ref="D3:D7" si="0">(B3+C3)/2</f>
-        <v>0.74259910000000007</v>
-      </c>
-      <c r="E3">
-        <v>0.74082400000000004</v>
-      </c>
-      <c r="F3">
-        <v>0.74757470000000004</v>
-      </c>
-      <c r="G3" s="4">
-        <f t="shared" ref="G3:G7" si="1">(E3+F3)/2</f>
-        <v>0.74419935000000004</v>
-      </c>
-      <c r="H3">
-        <v>0.74412440000000002</v>
-      </c>
-      <c r="J3" s="3">
-        <f t="shared" ref="J3:J7" si="2">H3</f>
-        <v>0.74412440000000002</v>
-      </c>
-      <c r="K3">
-        <v>0.74532449999999995</v>
-      </c>
-      <c r="M3" s="4">
-        <f t="shared" ref="M3:M7" si="3">K3</f>
-        <v>0.74532449999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="J3" s="3"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.75647560000000003</v>
-      </c>
-      <c r="C4">
-        <v>0.75517599999999996</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>0.75582579999999999</v>
-      </c>
-      <c r="E4">
-        <v>0.75432540000000003</v>
-      </c>
-      <c r="F4">
-        <v>0.75472547000000001</v>
-      </c>
-      <c r="G4" s="4">
-        <f t="shared" si="1"/>
-        <v>0.75452543500000002</v>
-      </c>
-      <c r="H4">
-        <v>0.75782578</v>
-      </c>
-      <c r="J4" s="3">
-        <f t="shared" si="2"/>
-        <v>0.75782578</v>
-      </c>
-      <c r="K4">
-        <v>0.75922590000000001</v>
-      </c>
-      <c r="M4" s="4">
-        <f t="shared" si="3"/>
-        <v>0.75922590000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="J4" s="3"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.5</v>
-      </c>
-      <c r="C5">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="E5">
-        <v>0.5</v>
-      </c>
-      <c r="F5">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="H5">
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="3">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="K5">
-        <v>0.5</v>
-      </c>
-      <c r="M5" s="4">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="J5" s="3"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0.72822799999999999</v>
-      </c>
-      <c r="C6">
-        <v>0.72747300000000004</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>0.72785049999999996</v>
-      </c>
-      <c r="E6">
-        <v>0.72917299999999996</v>
-      </c>
-      <c r="F6">
-        <v>0.72727269999999999</v>
-      </c>
-      <c r="G6" s="4">
-        <f t="shared" si="1"/>
-        <v>0.72822284999999998</v>
-      </c>
-      <c r="H6">
-        <v>0.72632262999999997</v>
-      </c>
-      <c r="J6" s="3">
-        <f t="shared" si="2"/>
-        <v>0.72632262999999997</v>
-      </c>
-      <c r="K6">
-        <v>0.72882287999999995</v>
-      </c>
-      <c r="M6" s="4">
-        <f t="shared" si="3"/>
-        <v>0.72882287999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="J6" s="3"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0.75922599999999996</v>
-      </c>
-      <c r="C7">
-        <v>0.74902500000000005</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>0.7541255</v>
-      </c>
-      <c r="E7">
-        <v>0.73377340000000002</v>
-      </c>
-      <c r="F7">
-        <v>0.75422540000000005</v>
-      </c>
-      <c r="G7" s="4">
-        <f t="shared" si="1"/>
-        <v>0.74399940000000009</v>
-      </c>
-      <c r="H7">
-        <v>0.71697169000000005</v>
-      </c>
-      <c r="J7" s="3">
-        <f t="shared" si="2"/>
-        <v>0.71697169000000005</v>
-      </c>
-      <c r="K7">
-        <v>0.73667366000000001</v>
-      </c>
-      <c r="M7" s="4">
-        <f t="shared" si="3"/>
-        <v>0.73667366000000001</v>
-      </c>
+      <c r="D7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="J7" s="3"/>
+      <c r="M7" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="10">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1145,178 +979,127 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99EB490-E231-4784-92D9-9DC65568F0B2}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="3" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="8"/>
+      <c r="L1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="M1" s="9"/>
+      <c r="N1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="8"/>
+      <c r="P1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="8"/>
+      <c r="T1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="9"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.6331</v>
-      </c>
-      <c r="C2">
-        <v>0.64070000000000005</v>
-      </c>
-      <c r="D2" s="3">
-        <f>(B2+C2)/2</f>
-        <v>0.63690000000000002</v>
-      </c>
-      <c r="E2">
-        <v>0.64180000000000004</v>
-      </c>
-      <c r="F2">
-        <v>0.63905000000000001</v>
-      </c>
-      <c r="G2" s="4">
-        <f>(E2+F2)/2</f>
-        <v>0.64042500000000002</v>
-      </c>
-      <c r="H2">
-        <v>0.64759999999999995</v>
-      </c>
-      <c r="I2">
-        <v>0.6391</v>
-      </c>
-      <c r="J2" s="3">
-        <f>(H2+I2)/2</f>
-        <v>0.64334999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0.68269999999999997</v>
-      </c>
-      <c r="C3">
-        <v>0.67149999999999999</v>
-      </c>
-      <c r="D3" s="3">
-        <f>(B3+C3)/2</f>
-        <v>0.67710000000000004</v>
-      </c>
-      <c r="E3">
-        <v>0.65690000000000004</v>
-      </c>
-      <c r="F3">
-        <v>0.66874999999999996</v>
-      </c>
-      <c r="G3" s="4">
-        <f t="shared" ref="G3:G5" si="0">(E3+F3)/2</f>
-        <v>0.662825</v>
-      </c>
-      <c r="H3">
-        <v>0.65910000000000002</v>
-      </c>
-      <c r="I3">
-        <v>0.65785000000000005</v>
-      </c>
-      <c r="J3" s="3">
-        <f t="shared" ref="J3:J5" si="1">(H3+I3)/2</f>
-        <v>0.65847500000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>0.69689999999999996</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.69689999999999996</v>
-      </c>
-      <c r="E4">
-        <v>0.70745000000000002</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.70745000000000002</v>
-      </c>
-      <c r="H4">
-        <v>0.70625000000000004</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.70625000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>0.64059999999999995</v>
-      </c>
-      <c r="C5">
-        <v>0.65375000000000005</v>
-      </c>
-      <c r="D5" s="3">
-        <f>(B5+C5)/2</f>
-        <v>0.64717500000000006</v>
-      </c>
-      <c r="E5">
-        <v>0.65244999999999997</v>
-      </c>
-      <c r="F5">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="G5" s="4">
-        <f t="shared" si="0"/>
-        <v>0.63472499999999998</v>
-      </c>
-      <c r="H5">
-        <v>0.64549999999999996</v>
-      </c>
-      <c r="I5">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="J5" s="3">
-        <f t="shared" si="1"/>
-        <v>0.64024999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="10">
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1334,4 +1117,156 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C82E8F-D4DD-49C4-9557-8120C51DD5F4}">
+  <dimension ref="A1:U8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="8"/>
+      <c r="L1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="9"/>
+      <c r="N1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="8"/>
+      <c r="P1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="8"/>
+      <c r="T1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="9"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32C652B-62E5-4591-B102-AE43B9CFBEE6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA423759-368C-49E3-B91E-0F7B84C3824B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>